--- a/data/cnpjs_test.xlsx
+++ b/data/cnpjs_test.xlsx
@@ -113,13 +113,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -139,13 +143,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.85"/>
   </cols>
@@ -157,8 +161,11 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>15374076</v>
+        <v>26290626</v>
       </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/cnpjs_test.xlsx
+++ b/data/cnpjs_test.xlsx
@@ -122,7 +122,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -165,7 +165,9 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="n">
+        <v>23319690</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/cnpjs_test.xlsx
+++ b/data/cnpjs_test.xlsx
@@ -32,7 +32,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -62,6 +62,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,7 +119,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -122,8 +128,12 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -143,10 +153,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -166,7 +176,57 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
+        <v>26290626</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>26290626</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>26290626</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>26290626</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>26290626</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>23319690</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>26290626</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>23319690</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>26290626</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>23319690</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>26290626</v>
       </c>
     </row>
   </sheetData>

--- a/data/cnpjs_test.xlsx
+++ b/data/cnpjs_test.xlsx
@@ -32,7 +32,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -62,12 +62,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,11 +122,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -156,7 +150,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -200,34 +194,22 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <v>23319690</v>
-      </c>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
-        <v>26290626</v>
-      </c>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
-        <v>23319690</v>
-      </c>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
-        <v>26290626</v>
-      </c>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
-        <v>23319690</v>
-      </c>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
-        <v>26290626</v>
-      </c>
+      <c r="A13" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/cnpjs_test.xlsx
+++ b/data/cnpjs_test.xlsx
@@ -32,7 +32,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -62,6 +62,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,7 +119,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -127,6 +133,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -150,7 +160,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -175,7 +185,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
-        <v>26290626</v>
+        <v>23319690</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -185,11 +195,11 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
-        <v>26290626</v>
+        <v>23319690</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>26290626</v>
       </c>
     </row>

--- a/data/cnpjs_test.xlsx
+++ b/data/cnpjs_test.xlsx
@@ -128,15 +128,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -160,7 +160,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -180,21 +180,21 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>26290626</v>
+        <v>23319690</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
-        <v>23319690</v>
+        <v>26290626</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>26290626</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>23319690</v>
       </c>
     </row>
@@ -204,22 +204,22 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/cnpjs_test.xlsx
+++ b/data/cnpjs_test.xlsx
@@ -119,7 +119,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -130,10 +130,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -180,46 +176,38 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>23319690</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
         <v>26290626</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+    </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>26290626</v>
-      </c>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>23319690</v>
-      </c>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>26290626</v>
-      </c>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/cnpjs_test.xlsx
+++ b/data/cnpjs_test.xlsx
@@ -119,7 +119,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -128,8 +128,12 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -156,7 +160,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -176,38 +180,40 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
+        <v>23319690</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>26290626</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-    </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/cnpjs_test.xlsx
+++ b/data/cnpjs_test.xlsx
@@ -132,11 +132,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -160,7 +160,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -185,35 +185,37 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
+        <v>22620686</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
         <v>26290626</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-    </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
